--- a/NformTester/NformTester/Keywordscripts/900.10.060_DashboardViewBasedOnDeviceStatus.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.10.060_DashboardViewBasedOnDeviceStatus.xlsx
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8239" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8248" uniqueCount="938">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4173,9 +4173,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NoCommunication</t>
-  </si>
-  <si>
     <t>Alarm</t>
   </si>
   <si>
@@ -4188,6 +4185,25 @@
   </si>
   <si>
     <t xml:space="preserve">;Click 'Alarm Communication' icon </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusText</t>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No communication</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4724,8 +4740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4939,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4997,14 +5013,20 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>705</v>
+        <v>933</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>936</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -5017,7 +5039,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="2"/>
@@ -5073,14 +5095,20 @@
         <v>19</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>937</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -5095,7 +5123,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5151,14 +5179,20 @@
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>929</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
